--- a/datos/ComparacionHighLowTempChatGPT.xlsx
+++ b/datos/ComparacionHighLowTempChatGPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docencia\2526\tfg\jorge\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A4A415-4984-445F-8E17-6C85DF407536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD26D8E6-260E-4E1F-88E0-790EB582CD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="5025" windowWidth="42480" windowHeight="17175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="4185" windowWidth="42480" windowHeight="17175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2781,7 +2781,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2804,6 +2804,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2838,10 +2850,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2852,9 +2865,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FEF0CAC9-57F0-404C-9741-B67712A6BC20}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3069,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:XFD102"/>
+    <sheetView tabSelected="1" topLeftCell="A492" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502:XFD502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13518,8 +13533,8 @@
       <c r="B402">
         <v>1</v>
       </c>
-      <c r="C402" s="2">
-        <v>1</v>
+      <c r="C402" s="6">
+        <v>2</v>
       </c>
       <c r="D402" t="s">
         <v>9</v>
@@ -13544,8 +13559,8 @@
       <c r="B403">
         <v>1</v>
       </c>
-      <c r="C403" s="2">
-        <v>1</v>
+      <c r="C403" s="6">
+        <v>3</v>
       </c>
       <c r="D403" t="s">
         <v>9</v>
@@ -13570,8 +13585,8 @@
       <c r="B404">
         <v>1</v>
       </c>
-      <c r="C404" s="2">
-        <v>1</v>
+      <c r="C404" s="6">
+        <v>3</v>
       </c>
       <c r="D404" t="s">
         <v>9</v>
@@ -13596,8 +13611,8 @@
       <c r="B405">
         <v>1</v>
       </c>
-      <c r="C405" s="2">
-        <v>1</v>
+      <c r="C405" s="6">
+        <v>3</v>
       </c>
       <c r="D405" t="s">
         <v>9</v>
@@ -13622,8 +13637,8 @@
       <c r="B406">
         <v>1</v>
       </c>
-      <c r="C406" s="2">
-        <v>1</v>
+      <c r="C406" s="6">
+        <v>4</v>
       </c>
       <c r="D406" t="s">
         <v>9</v>
@@ -13648,8 +13663,8 @@
       <c r="B407">
         <v>1</v>
       </c>
-      <c r="C407" s="2">
-        <v>1</v>
+      <c r="C407" s="6">
+        <v>2</v>
       </c>
       <c r="D407" t="s">
         <v>9</v>
@@ -13674,8 +13689,8 @@
       <c r="B408">
         <v>1</v>
       </c>
-      <c r="C408" s="2">
-        <v>1</v>
+      <c r="C408" s="6">
+        <v>3</v>
       </c>
       <c r="D408" t="s">
         <v>9</v>
@@ -13700,8 +13715,8 @@
       <c r="B409">
         <v>1</v>
       </c>
-      <c r="C409" s="2">
-        <v>1</v>
+      <c r="C409" s="6">
+        <v>4</v>
       </c>
       <c r="D409" t="s">
         <v>9</v>
@@ -13726,8 +13741,8 @@
       <c r="B410">
         <v>1</v>
       </c>
-      <c r="C410" s="2">
-        <v>1</v>
+      <c r="C410" s="6">
+        <v>4</v>
       </c>
       <c r="D410" t="s">
         <v>9</v>
@@ -13752,8 +13767,8 @@
       <c r="B411">
         <v>1</v>
       </c>
-      <c r="C411" s="2">
-        <v>1</v>
+      <c r="C411" s="6">
+        <v>3</v>
       </c>
       <c r="D411" t="s">
         <v>9</v>
@@ -13778,8 +13793,8 @@
       <c r="B412">
         <v>1</v>
       </c>
-      <c r="C412">
-        <v>2</v>
+      <c r="C412" s="6">
+        <v>4</v>
       </c>
       <c r="D412" t="s">
         <v>9</v>
@@ -13804,8 +13819,8 @@
       <c r="B413">
         <v>1</v>
       </c>
-      <c r="C413">
-        <v>2</v>
+      <c r="C413" s="6">
+        <v>4</v>
       </c>
       <c r="D413" t="s">
         <v>9</v>
@@ -13830,8 +13845,8 @@
       <c r="B414">
         <v>1</v>
       </c>
-      <c r="C414">
-        <v>2</v>
+      <c r="C414" s="6">
+        <v>3</v>
       </c>
       <c r="D414" t="s">
         <v>9</v>
@@ -13856,8 +13871,8 @@
       <c r="B415">
         <v>1</v>
       </c>
-      <c r="C415">
-        <v>2</v>
+      <c r="C415" s="6">
+        <v>5</v>
       </c>
       <c r="D415" t="s">
         <v>9</v>
@@ -13882,8 +13897,8 @@
       <c r="B416">
         <v>1</v>
       </c>
-      <c r="C416">
-        <v>2</v>
+      <c r="C416" s="6">
+        <v>4</v>
       </c>
       <c r="D416" t="s">
         <v>9</v>
@@ -13908,8 +13923,8 @@
       <c r="B417">
         <v>1</v>
       </c>
-      <c r="C417">
-        <v>2</v>
+      <c r="C417" s="6">
+        <v>4</v>
       </c>
       <c r="D417" t="s">
         <v>9</v>
@@ -13934,8 +13949,8 @@
       <c r="B418">
         <v>1</v>
       </c>
-      <c r="C418">
-        <v>2</v>
+      <c r="C418" s="6">
+        <v>5</v>
       </c>
       <c r="D418" t="s">
         <v>9</v>
@@ -13960,8 +13975,8 @@
       <c r="B419">
         <v>1</v>
       </c>
-      <c r="C419">
-        <v>2</v>
+      <c r="C419" s="6">
+        <v>4</v>
       </c>
       <c r="D419" t="s">
         <v>9</v>
@@ -13986,8 +14001,8 @@
       <c r="B420">
         <v>1</v>
       </c>
-      <c r="C420">
-        <v>2</v>
+      <c r="C420" s="6">
+        <v>4</v>
       </c>
       <c r="D420" t="s">
         <v>9</v>
@@ -14012,8 +14027,8 @@
       <c r="B421">
         <v>1</v>
       </c>
-      <c r="C421">
-        <v>2</v>
+      <c r="C421" s="6">
+        <v>4</v>
       </c>
       <c r="D421" t="s">
         <v>9</v>
@@ -14038,8 +14053,8 @@
       <c r="B422">
         <v>1</v>
       </c>
-      <c r="C422">
-        <v>3</v>
+      <c r="C422" s="6">
+        <v>5</v>
       </c>
       <c r="D422" t="s">
         <v>9</v>
@@ -14064,8 +14079,8 @@
       <c r="B423">
         <v>1</v>
       </c>
-      <c r="C423">
-        <v>3</v>
+      <c r="C423" s="6">
+        <v>5</v>
       </c>
       <c r="D423" t="s">
         <v>9</v>
@@ -14090,8 +14105,8 @@
       <c r="B424">
         <v>1</v>
       </c>
-      <c r="C424">
-        <v>3</v>
+      <c r="C424" s="6">
+        <v>5</v>
       </c>
       <c r="D424" t="s">
         <v>9</v>
@@ -14116,8 +14131,8 @@
       <c r="B425">
         <v>1</v>
       </c>
-      <c r="C425">
-        <v>3</v>
+      <c r="C425" s="6">
+        <v>6</v>
       </c>
       <c r="D425" t="s">
         <v>9</v>
@@ -14142,8 +14157,8 @@
       <c r="B426">
         <v>1</v>
       </c>
-      <c r="C426">
-        <v>3</v>
+      <c r="C426" s="6">
+        <v>6</v>
       </c>
       <c r="D426" t="s">
         <v>9</v>
@@ -14168,8 +14183,8 @@
       <c r="B427">
         <v>1</v>
       </c>
-      <c r="C427">
-        <v>3</v>
+      <c r="C427" s="6">
+        <v>6</v>
       </c>
       <c r="D427" t="s">
         <v>9</v>
@@ -14194,8 +14209,8 @@
       <c r="B428">
         <v>1</v>
       </c>
-      <c r="C428">
-        <v>3</v>
+      <c r="C428" s="6">
+        <v>6</v>
       </c>
       <c r="D428" t="s">
         <v>9</v>
@@ -14220,8 +14235,8 @@
       <c r="B429">
         <v>1</v>
       </c>
-      <c r="C429">
-        <v>3</v>
+      <c r="C429" s="6">
+        <v>6</v>
       </c>
       <c r="D429" t="s">
         <v>9</v>
@@ -14246,8 +14261,8 @@
       <c r="B430">
         <v>1</v>
       </c>
-      <c r="C430">
-        <v>3</v>
+      <c r="C430" s="6">
+        <v>5</v>
       </c>
       <c r="D430" t="s">
         <v>9</v>
@@ -14272,8 +14287,8 @@
       <c r="B431">
         <v>1</v>
       </c>
-      <c r="C431">
-        <v>3</v>
+      <c r="C431" s="6">
+        <v>4</v>
       </c>
       <c r="D431" t="s">
         <v>9</v>
@@ -14298,8 +14313,8 @@
       <c r="B432">
         <v>1</v>
       </c>
-      <c r="C432">
-        <v>4</v>
+      <c r="C432" s="6">
+        <v>7</v>
       </c>
       <c r="D432" t="s">
         <v>9</v>
@@ -14324,8 +14339,8 @@
       <c r="B433">
         <v>1</v>
       </c>
-      <c r="C433">
-        <v>4</v>
+      <c r="C433" s="6">
+        <v>6</v>
       </c>
       <c r="D433" t="s">
         <v>9</v>
@@ -14350,7 +14365,7 @@
       <c r="B434">
         <v>1</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="6">
         <v>4</v>
       </c>
       <c r="D434" t="s">
@@ -14376,8 +14391,8 @@
       <c r="B435">
         <v>1</v>
       </c>
-      <c r="C435">
-        <v>4</v>
+      <c r="C435" s="6">
+        <v>6</v>
       </c>
       <c r="D435" t="s">
         <v>9</v>
@@ -14402,8 +14417,8 @@
       <c r="B436">
         <v>1</v>
       </c>
-      <c r="C436">
-        <v>4</v>
+      <c r="C436" s="6">
+        <v>5</v>
       </c>
       <c r="D436" t="s">
         <v>9</v>
@@ -14428,8 +14443,8 @@
       <c r="B437">
         <v>1</v>
       </c>
-      <c r="C437">
-        <v>4</v>
+      <c r="C437" s="6">
+        <v>6</v>
       </c>
       <c r="D437" t="s">
         <v>9</v>
@@ -14454,8 +14469,8 @@
       <c r="B438">
         <v>1</v>
       </c>
-      <c r="C438">
-        <v>4</v>
+      <c r="C438" s="6">
+        <v>6</v>
       </c>
       <c r="D438" t="s">
         <v>9</v>
@@ -14480,8 +14495,8 @@
       <c r="B439">
         <v>1</v>
       </c>
-      <c r="C439">
-        <v>4</v>
+      <c r="C439" s="6">
+        <v>6</v>
       </c>
       <c r="D439" t="s">
         <v>9</v>
@@ -14506,8 +14521,8 @@
       <c r="B440">
         <v>1</v>
       </c>
-      <c r="C440">
-        <v>4</v>
+      <c r="C440" s="6">
+        <v>6</v>
       </c>
       <c r="D440" t="s">
         <v>9</v>
@@ -14532,8 +14547,8 @@
       <c r="B441">
         <v>1</v>
       </c>
-      <c r="C441">
-        <v>4</v>
+      <c r="C441" s="6">
+        <v>5</v>
       </c>
       <c r="D441" t="s">
         <v>9</v>
@@ -14558,8 +14573,8 @@
       <c r="B442">
         <v>1</v>
       </c>
-      <c r="C442">
-        <v>5</v>
+      <c r="C442" s="6">
+        <v>8</v>
       </c>
       <c r="D442" t="s">
         <v>9</v>
@@ -14584,8 +14599,8 @@
       <c r="B443">
         <v>1</v>
       </c>
-      <c r="C443">
-        <v>5</v>
+      <c r="C443" s="6">
+        <v>7</v>
       </c>
       <c r="D443" t="s">
         <v>9</v>
@@ -14610,8 +14625,8 @@
       <c r="B444">
         <v>1</v>
       </c>
-      <c r="C444">
-        <v>5</v>
+      <c r="C444" s="6">
+        <v>6</v>
       </c>
       <c r="D444" t="s">
         <v>9</v>
@@ -14636,8 +14651,8 @@
       <c r="B445">
         <v>1</v>
       </c>
-      <c r="C445">
-        <v>5</v>
+      <c r="C445" s="6">
+        <v>6</v>
       </c>
       <c r="D445" t="s">
         <v>9</v>
@@ -14662,8 +14677,8 @@
       <c r="B446">
         <v>1</v>
       </c>
-      <c r="C446">
-        <v>5</v>
+      <c r="C446" s="6">
+        <v>7</v>
       </c>
       <c r="D446" t="s">
         <v>9</v>
@@ -14688,8 +14703,8 @@
       <c r="B447">
         <v>1</v>
       </c>
-      <c r="C447">
-        <v>5</v>
+      <c r="C447" s="6">
+        <v>7</v>
       </c>
       <c r="D447" t="s">
         <v>9</v>
@@ -14714,8 +14729,8 @@
       <c r="B448">
         <v>1</v>
       </c>
-      <c r="C448">
-        <v>5</v>
+      <c r="C448" s="6">
+        <v>6</v>
       </c>
       <c r="D448" t="s">
         <v>9</v>
@@ -14740,8 +14755,8 @@
       <c r="B449">
         <v>1</v>
       </c>
-      <c r="C449">
-        <v>5</v>
+      <c r="C449" s="6">
+        <v>7</v>
       </c>
       <c r="D449" t="s">
         <v>9</v>
@@ -14766,8 +14781,8 @@
       <c r="B450">
         <v>1</v>
       </c>
-      <c r="C450">
-        <v>5</v>
+      <c r="C450" s="6">
+        <v>6</v>
       </c>
       <c r="D450" t="s">
         <v>9</v>
@@ -14792,8 +14807,8 @@
       <c r="B451">
         <v>1</v>
       </c>
-      <c r="C451">
-        <v>5</v>
+      <c r="C451" s="6">
+        <v>6</v>
       </c>
       <c r="D451" t="s">
         <v>9</v>
@@ -14818,8 +14833,8 @@
       <c r="B452">
         <v>1</v>
       </c>
-      <c r="C452">
-        <v>6</v>
+      <c r="C452" s="6">
+        <v>8</v>
       </c>
       <c r="D452" t="s">
         <v>9</v>
@@ -14844,8 +14859,8 @@
       <c r="B453">
         <v>1</v>
       </c>
-      <c r="C453">
-        <v>6</v>
+      <c r="C453" s="6">
+        <v>7</v>
       </c>
       <c r="D453" t="s">
         <v>9</v>
@@ -14870,8 +14885,8 @@
       <c r="B454">
         <v>1</v>
       </c>
-      <c r="C454">
-        <v>6</v>
+      <c r="C454" s="6">
+        <v>7</v>
       </c>
       <c r="D454" t="s">
         <v>9</v>
@@ -14896,8 +14911,8 @@
       <c r="B455">
         <v>1</v>
       </c>
-      <c r="C455">
-        <v>6</v>
+      <c r="C455" s="6">
+        <v>8</v>
       </c>
       <c r="D455" t="s">
         <v>9</v>
@@ -14922,8 +14937,8 @@
       <c r="B456">
         <v>1</v>
       </c>
-      <c r="C456">
-        <v>6</v>
+      <c r="C456" s="6">
+        <v>8</v>
       </c>
       <c r="D456" t="s">
         <v>9</v>
@@ -14948,8 +14963,8 @@
       <c r="B457">
         <v>1</v>
       </c>
-      <c r="C457">
-        <v>6</v>
+      <c r="C457" s="6">
+        <v>8</v>
       </c>
       <c r="D457" t="s">
         <v>9</v>
@@ -14974,8 +14989,8 @@
       <c r="B458">
         <v>1</v>
       </c>
-      <c r="C458">
-        <v>6</v>
+      <c r="C458" s="6">
+        <v>7</v>
       </c>
       <c r="D458" t="s">
         <v>9</v>
@@ -15000,8 +15015,8 @@
       <c r="B459">
         <v>1</v>
       </c>
-      <c r="C459">
-        <v>6</v>
+      <c r="C459" s="6">
+        <v>8</v>
       </c>
       <c r="D459" t="s">
         <v>9</v>
@@ -15026,8 +15041,8 @@
       <c r="B460">
         <v>1</v>
       </c>
-      <c r="C460">
-        <v>6</v>
+      <c r="C460" s="6">
+        <v>8</v>
       </c>
       <c r="D460" t="s">
         <v>9</v>
@@ -15052,8 +15067,8 @@
       <c r="B461">
         <v>1</v>
       </c>
-      <c r="C461">
-        <v>6</v>
+      <c r="C461" s="6">
+        <v>8</v>
       </c>
       <c r="D461" t="s">
         <v>9</v>
@@ -15078,8 +15093,8 @@
       <c r="B462">
         <v>1</v>
       </c>
-      <c r="C462">
-        <v>7</v>
+      <c r="C462" s="6">
+        <v>8</v>
       </c>
       <c r="D462" t="s">
         <v>9</v>
@@ -15104,8 +15119,8 @@
       <c r="B463">
         <v>1</v>
       </c>
-      <c r="C463">
-        <v>7</v>
+      <c r="C463" s="6">
+        <v>8</v>
       </c>
       <c r="D463" t="s">
         <v>9</v>
@@ -15130,8 +15145,8 @@
       <c r="B464">
         <v>1</v>
       </c>
-      <c r="C464">
-        <v>7</v>
+      <c r="C464" s="6">
+        <v>9</v>
       </c>
       <c r="D464" t="s">
         <v>9</v>
@@ -15156,8 +15171,8 @@
       <c r="B465">
         <v>1</v>
       </c>
-      <c r="C465">
-        <v>7</v>
+      <c r="C465" s="6">
+        <v>9</v>
       </c>
       <c r="D465" t="s">
         <v>9</v>
@@ -15182,8 +15197,8 @@
       <c r="B466">
         <v>1</v>
       </c>
-      <c r="C466">
-        <v>7</v>
+      <c r="C466" s="6">
+        <v>8</v>
       </c>
       <c r="D466" t="s">
         <v>9</v>
@@ -15208,8 +15223,8 @@
       <c r="B467">
         <v>1</v>
       </c>
-      <c r="C467">
-        <v>7</v>
+      <c r="C467" s="6">
+        <v>9</v>
       </c>
       <c r="D467" t="s">
         <v>9</v>
@@ -15234,8 +15249,8 @@
       <c r="B468">
         <v>1</v>
       </c>
-      <c r="C468">
-        <v>7</v>
+      <c r="C468" s="6">
+        <v>9</v>
       </c>
       <c r="D468" t="s">
         <v>9</v>
@@ -15260,8 +15275,8 @@
       <c r="B469">
         <v>1</v>
       </c>
-      <c r="C469">
-        <v>7</v>
+      <c r="C469" s="6">
+        <v>8</v>
       </c>
       <c r="D469" t="s">
         <v>9</v>
@@ -15286,8 +15301,8 @@
       <c r="B470">
         <v>1</v>
       </c>
-      <c r="C470">
-        <v>7</v>
+      <c r="C470" s="6">
+        <v>8</v>
       </c>
       <c r="D470" t="s">
         <v>9</v>
@@ -15312,8 +15327,8 @@
       <c r="B471">
         <v>1</v>
       </c>
-      <c r="C471">
-        <v>7</v>
+      <c r="C471" s="6">
+        <v>9</v>
       </c>
       <c r="D471" t="s">
         <v>9</v>
@@ -15338,7 +15353,7 @@
       <c r="B472">
         <v>1</v>
       </c>
-      <c r="C472">
+      <c r="C472" s="6">
         <v>8</v>
       </c>
       <c r="D472" t="s">
@@ -15364,8 +15379,8 @@
       <c r="B473">
         <v>1</v>
       </c>
-      <c r="C473">
-        <v>8</v>
+      <c r="C473" s="6">
+        <v>9</v>
       </c>
       <c r="D473" t="s">
         <v>9</v>
@@ -15390,8 +15405,8 @@
       <c r="B474">
         <v>1</v>
       </c>
-      <c r="C474">
-        <v>8</v>
+      <c r="C474" s="6">
+        <v>9</v>
       </c>
       <c r="D474" t="s">
         <v>9</v>
@@ -15416,8 +15431,8 @@
       <c r="B475">
         <v>1</v>
       </c>
-      <c r="C475">
-        <v>8</v>
+      <c r="C475" s="6">
+        <v>9</v>
       </c>
       <c r="D475" t="s">
         <v>9</v>
@@ -15442,8 +15457,8 @@
       <c r="B476">
         <v>1</v>
       </c>
-      <c r="C476">
-        <v>8</v>
+      <c r="C476" s="6">
+        <v>9</v>
       </c>
       <c r="D476" t="s">
         <v>9</v>
@@ -15468,8 +15483,8 @@
       <c r="B477">
         <v>1</v>
       </c>
-      <c r="C477">
-        <v>8</v>
+      <c r="C477" s="6">
+        <v>9</v>
       </c>
       <c r="D477" t="s">
         <v>9</v>
@@ -15494,8 +15509,8 @@
       <c r="B478">
         <v>1</v>
       </c>
-      <c r="C478">
-        <v>8</v>
+      <c r="C478" s="6">
+        <v>9</v>
       </c>
       <c r="D478" t="s">
         <v>9</v>
@@ -15520,8 +15535,8 @@
       <c r="B479">
         <v>1</v>
       </c>
-      <c r="C479">
-        <v>8</v>
+      <c r="C479" s="6">
+        <v>9</v>
       </c>
       <c r="D479" t="s">
         <v>9</v>
@@ -15546,8 +15561,8 @@
       <c r="B480">
         <v>1</v>
       </c>
-      <c r="C480">
-        <v>8</v>
+      <c r="C480" s="6">
+        <v>9</v>
       </c>
       <c r="D480" t="s">
         <v>9</v>
@@ -15572,8 +15587,8 @@
       <c r="B481">
         <v>1</v>
       </c>
-      <c r="C481">
-        <v>8</v>
+      <c r="C481" s="6">
+        <v>9</v>
       </c>
       <c r="D481" t="s">
         <v>9</v>
@@ -15598,7 +15613,7 @@
       <c r="B482">
         <v>1</v>
       </c>
-      <c r="C482">
+      <c r="C482" s="6">
         <v>9</v>
       </c>
       <c r="D482" t="s">
@@ -15624,8 +15639,8 @@
       <c r="B483">
         <v>1</v>
       </c>
-      <c r="C483">
-        <v>9</v>
+      <c r="C483" s="6">
+        <v>10</v>
       </c>
       <c r="D483" t="s">
         <v>9</v>
@@ -15650,8 +15665,8 @@
       <c r="B484">
         <v>1</v>
       </c>
-      <c r="C484">
-        <v>9</v>
+      <c r="C484" s="6">
+        <v>10</v>
       </c>
       <c r="D484" t="s">
         <v>9</v>
@@ -15676,8 +15691,8 @@
       <c r="B485">
         <v>1</v>
       </c>
-      <c r="C485">
-        <v>9</v>
+      <c r="C485" s="6">
+        <v>10</v>
       </c>
       <c r="D485" t="s">
         <v>9</v>
@@ -15702,8 +15717,8 @@
       <c r="B486">
         <v>1</v>
       </c>
-      <c r="C486">
-        <v>9</v>
+      <c r="C486" s="6">
+        <v>10</v>
       </c>
       <c r="D486" t="s">
         <v>9</v>
@@ -15728,8 +15743,8 @@
       <c r="B487">
         <v>1</v>
       </c>
-      <c r="C487">
-        <v>9</v>
+      <c r="C487" s="6">
+        <v>10</v>
       </c>
       <c r="D487" t="s">
         <v>9</v>
@@ -15754,8 +15769,8 @@
       <c r="B488">
         <v>1</v>
       </c>
-      <c r="C488">
-        <v>9</v>
+      <c r="C488" s="6">
+        <v>10</v>
       </c>
       <c r="D488" t="s">
         <v>9</v>
@@ -15780,8 +15795,8 @@
       <c r="B489">
         <v>1</v>
       </c>
-      <c r="C489">
-        <v>9</v>
+      <c r="C489" s="6">
+        <v>10</v>
       </c>
       <c r="D489" t="s">
         <v>9</v>
@@ -15806,8 +15821,8 @@
       <c r="B490">
         <v>1</v>
       </c>
-      <c r="C490">
-        <v>9</v>
+      <c r="C490" s="6">
+        <v>10</v>
       </c>
       <c r="D490" t="s">
         <v>9</v>
@@ -15832,8 +15847,8 @@
       <c r="B491">
         <v>1</v>
       </c>
-      <c r="C491">
-        <v>9</v>
+      <c r="C491" s="6">
+        <v>10</v>
       </c>
       <c r="D491" t="s">
         <v>9</v>
@@ -15858,7 +15873,7 @@
       <c r="B492">
         <v>1</v>
       </c>
-      <c r="C492">
+      <c r="C492" s="6">
         <v>10</v>
       </c>
       <c r="D492" t="s">
@@ -15884,7 +15899,7 @@
       <c r="B493">
         <v>1</v>
       </c>
-      <c r="C493">
+      <c r="C493" s="6">
         <v>10</v>
       </c>
       <c r="D493" t="s">
@@ -15910,7 +15925,7 @@
       <c r="B494">
         <v>1</v>
       </c>
-      <c r="C494">
+      <c r="C494" s="6">
         <v>10</v>
       </c>
       <c r="D494" t="s">
@@ -15936,7 +15951,7 @@
       <c r="B495">
         <v>1</v>
       </c>
-      <c r="C495">
+      <c r="C495" s="6">
         <v>10</v>
       </c>
       <c r="D495" t="s">
@@ -15962,7 +15977,7 @@
       <c r="B496">
         <v>1</v>
       </c>
-      <c r="C496">
+      <c r="C496" s="6">
         <v>10</v>
       </c>
       <c r="D496" t="s">
@@ -15988,7 +16003,7 @@
       <c r="B497">
         <v>1</v>
       </c>
-      <c r="C497">
+      <c r="C497" s="6">
         <v>10</v>
       </c>
       <c r="D497" t="s">
@@ -16014,7 +16029,7 @@
       <c r="B498">
         <v>1</v>
       </c>
-      <c r="C498">
+      <c r="C498" s="6">
         <v>10</v>
       </c>
       <c r="D498" t="s">
@@ -16040,7 +16055,7 @@
       <c r="B499">
         <v>1</v>
       </c>
-      <c r="C499">
+      <c r="C499" s="6">
         <v>10</v>
       </c>
       <c r="D499" t="s">
@@ -16066,7 +16081,7 @@
       <c r="B500">
         <v>1</v>
       </c>
-      <c r="C500">
+      <c r="C500" s="6">
         <v>10</v>
       </c>
       <c r="D500" t="s">
@@ -16092,7 +16107,7 @@
       <c r="B501">
         <v>1</v>
       </c>
-      <c r="C501">
+      <c r="C501" s="6">
         <v>10</v>
       </c>
       <c r="D501" t="s">
@@ -16112,6 +16127,7 @@
       </c>
     </row>
     <row r="502" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C502" s="6"/>
       <c r="G502" s="4"/>
       <c r="H502" s="4"/>
     </row>
